--- a/data/trans_bre/P1408-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1408-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.091685205598027</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-3.308352232176564</v>
+        <v>-3.308352232176563</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4799313246722911</v>
@@ -649,7 +649,7 @@
         <v>-0.4610670508406302</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.378760309885452</v>
+        <v>-0.3787603098854519</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.44445521329274</v>
+        <v>-6.593488443581077</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.487128192425214</v>
+        <v>-4.474364406556472</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.944331443674324</v>
+        <v>-4.083328187707303</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.877125458661917</v>
+        <v>-5.784997966266209</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.622326442852318</v>
+        <v>-0.6378385236989768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.712417262045715</v>
+        <v>-0.7158464971736412</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7002811071328442</v>
+        <v>-0.7058597252463965</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.560339402436154</v>
+        <v>-0.5479290476082396</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.197069373369766</v>
+        <v>-2.310458188785479</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.169144115806972</v>
+        <v>-1.163992625146927</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.3855583306952172</v>
+        <v>-0.4461446991414568</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.9547503236212224</v>
+        <v>-0.8770613138006003</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.2882352755496603</v>
+        <v>-0.301373541337436</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2915107349258801</v>
+        <v>-0.2855699383443875</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.08327163129339026</v>
+        <v>-0.119018922681326</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1352057545778478</v>
+        <v>-0.118937113976243</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.5151580385204052</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5450125963548327</v>
+        <v>0.5450125963548322</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2746765879262321</v>
@@ -749,7 +749,7 @@
         <v>-0.3740413664352747</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3698985648642003</v>
+        <v>0.3698985648641999</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.551683244250483</v>
+        <v>-1.546034460242461</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.322144919193664</v>
+        <v>-1.349595621775836</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.203666884803591</v>
+        <v>-1.152748462563221</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.1744414430078012</v>
+        <v>-0.1698327283373119</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5874491142610867</v>
+        <v>-0.5820170891418519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7985139039409468</v>
+        <v>-0.8064812277475524</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6873301769747807</v>
+        <v>-0.6643004806735227</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.112506731816785</v>
+        <v>-0.113791650600859</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3022256453496132</v>
+        <v>0.3901586008754147</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05607639789920246</v>
+        <v>0.0779865716946259</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1322146051074293</v>
+        <v>0.1368970486238211</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.384985001953352</v>
+        <v>1.310686288784436</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1930086114822983</v>
+        <v>0.2586409022193782</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1859847590111794</v>
+        <v>0.3051810150392464</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1541632513978466</v>
+        <v>0.1739651587424192</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.221343485502776</v>
+        <v>1.142206921283792</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.1178026238116545</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09681425363933985</v>
+        <v>0.09681425363934001</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1134701555873779</v>
@@ -851,7 +851,7 @@
         <v>-0.175984957369581</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1026407638660397</v>
+        <v>0.1026407638660399</v>
       </c>
     </row>
     <row r="11">
@@ -862,26 +862,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.541524552297134</v>
+        <v>-1.593821843330383</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.198876769490034</v>
+        <v>-1.255940599499134</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8001305763538042</v>
+        <v>-0.7982024982210469</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7979086273598043</v>
+        <v>-0.8180875687210584</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
-      <c r="I11" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.5817222262209232</v>
+        <v>-0.5764699316715794</v>
       </c>
     </row>
     <row r="12">
@@ -892,24 +890,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.213369667483743</v>
+        <v>1.254586258436719</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.054747092040076</v>
+        <v>1.189909753276087</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7471785775630655</v>
+        <v>0.784728555067991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.027184509197254</v>
+        <v>1.050836479869173</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.917243970574187</v>
+        <v>2.002141240664933</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>2.117954479410424</v>
+        <v>2.117094755034411</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +931,7 @@
         <v>-0.7086872035424074</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01655023571845195</v>
+        <v>0.0165502357184516</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3474918286776134</v>
@@ -945,7 +943,7 @@
         <v>-0.3600583829392185</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.00646917593603384</v>
+        <v>0.006469175936033703</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.332061064233431</v>
+        <v>-2.388119986784193</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.661975759084038</v>
+        <v>-1.65699724655182</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.28630599370241</v>
+        <v>-1.357024681993043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.6146295931664587</v>
+        <v>-0.6644482080884272</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4984370533910211</v>
+        <v>-0.5143196400702617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6392236830659619</v>
+        <v>-0.6323062115206466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5702315348546009</v>
+        <v>-0.5734855920349747</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2134651805397706</v>
+        <v>-0.2301378200905528</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.5692304976613274</v>
+        <v>-0.5175995563381459</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.2841027819181406</v>
+        <v>-0.3852123711379827</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.1156418412016533</v>
+        <v>-0.1358472028493193</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7110275073197561</v>
+        <v>0.7147329161375998</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1401979734886749</v>
+        <v>-0.1426980646189694</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1633212867977543</v>
+        <v>-0.1961002533273851</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.07322829691866091</v>
+        <v>-0.04264507611566214</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3291452333086106</v>
+        <v>0.3216403123892226</v>
       </c>
     </row>
     <row r="16">
